--- a/data/pca/factorExposure/factorExposure_2018-11-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.07302817529568124</v>
+        <v>-0.04849277625113781</v>
       </c>
       <c r="C2">
-        <v>-0.05359034878919344</v>
+        <v>0.00317197117189188</v>
       </c>
       <c r="D2">
-        <v>0.07359824151484323</v>
+        <v>-0.02329139440428239</v>
       </c>
       <c r="E2">
-        <v>0.01331718106611803</v>
+        <v>0.01833651417648158</v>
       </c>
       <c r="F2">
-        <v>-0.1363655555897141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03508738677092532</v>
+      </c>
+      <c r="G2">
+        <v>-0.1099969543897558</v>
+      </c>
+      <c r="H2">
+        <v>-0.06694628089845488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2012148362216952</v>
+        <v>-0.1253617384723087</v>
       </c>
       <c r="C3">
-        <v>0.01003187800369623</v>
+        <v>-0.04114776384106508</v>
       </c>
       <c r="D3">
-        <v>0.1370711722573085</v>
+        <v>-0.04897501984017079</v>
       </c>
       <c r="E3">
-        <v>0.0541630326381754</v>
+        <v>0.01131731734007955</v>
       </c>
       <c r="F3">
-        <v>-0.3599021968789922</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.0009907994202892599</v>
+      </c>
+      <c r="G3">
+        <v>-0.3583800542183607</v>
+      </c>
+      <c r="H3">
+        <v>-0.2307708047898075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.06542603278726865</v>
+        <v>-0.05649483583515421</v>
       </c>
       <c r="C4">
-        <v>-0.02954631354306653</v>
+        <v>-0.003907669450227718</v>
       </c>
       <c r="D4">
-        <v>0.05467938551806113</v>
+        <v>-0.03709710360228947</v>
       </c>
       <c r="E4">
-        <v>0.05740964523553962</v>
+        <v>-0.01490010360878723</v>
       </c>
       <c r="F4">
-        <v>-0.06210666460918204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.05850578415264844</v>
+      </c>
+      <c r="G4">
+        <v>-0.06210287647256135</v>
+      </c>
+      <c r="H4">
+        <v>-0.02554590678757099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.006857787143032735</v>
+        <v>-0.03232807733608953</v>
       </c>
       <c r="C6">
-        <v>-0.002597048673085524</v>
+        <v>-0.001027253780440289</v>
       </c>
       <c r="D6">
-        <v>0.001720982709234197</v>
+        <v>-0.01736587351401392</v>
       </c>
       <c r="E6">
-        <v>-0.004676686142551215</v>
+        <v>-0.002878352895482489</v>
       </c>
       <c r="F6">
-        <v>-0.0001896819374552352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02525166900281904</v>
+      </c>
+      <c r="G6">
+        <v>-0.01250517877833344</v>
+      </c>
+      <c r="H6">
+        <v>0.03531685516583204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03182601183959556</v>
+        <v>-0.02818805436983704</v>
       </c>
       <c r="C7">
-        <v>-0.02506690028217873</v>
+        <v>-0.002193587558382137</v>
       </c>
       <c r="D7">
-        <v>0.04395555669988331</v>
+        <v>-0.006815923118896349</v>
       </c>
       <c r="E7">
-        <v>0.01094962617710028</v>
+        <v>-0.03392653765048944</v>
       </c>
       <c r="F7">
-        <v>-0.07299300151829675</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02870720491857674</v>
+      </c>
+      <c r="G7">
+        <v>-0.05309226263222732</v>
+      </c>
+      <c r="H7">
+        <v>-0.04446758342952079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03564536420979999</v>
+        <v>-0.0116524774993688</v>
       </c>
       <c r="C8">
-        <v>-0.001633473560887851</v>
+        <v>-0.005308859877379474</v>
       </c>
       <c r="D8">
-        <v>0.04558127470442633</v>
+        <v>-0.03670248742677405</v>
       </c>
       <c r="E8">
-        <v>0.04869519627967579</v>
+        <v>-0.01020459074530558</v>
       </c>
       <c r="F8">
-        <v>-0.08618272067589346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02382070248877553</v>
+      </c>
+      <c r="G8">
+        <v>-0.07188555498562577</v>
+      </c>
+      <c r="H8">
+        <v>-0.05385527025605519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.05363690537475859</v>
+        <v>-0.04464683789985072</v>
       </c>
       <c r="C9">
-        <v>-0.02754954583593909</v>
+        <v>-0.006526864626510026</v>
       </c>
       <c r="D9">
-        <v>0.03815267273622817</v>
+        <v>-0.025819717670839</v>
       </c>
       <c r="E9">
-        <v>0.06371202510853841</v>
+        <v>-0.01563332533183252</v>
       </c>
       <c r="F9">
-        <v>-0.06205194845844493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.03990857460488716</v>
+      </c>
+      <c r="G9">
+        <v>-0.07869796863294029</v>
+      </c>
+      <c r="H9">
+        <v>-0.0265135396371005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0360863272806563</v>
+        <v>-0.05399346053312388</v>
       </c>
       <c r="C10">
-        <v>-0.07420890724727557</v>
+        <v>-0.01470389528872478</v>
       </c>
       <c r="D10">
-        <v>-0.1079702826052577</v>
+        <v>0.1586237323244702</v>
       </c>
       <c r="E10">
-        <v>-0.09437896472361754</v>
+        <v>0.01502449445235039</v>
       </c>
       <c r="F10">
-        <v>-0.07772720027311182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.05779597599317923</v>
+      </c>
+      <c r="G10">
+        <v>-0.04413781762719252</v>
+      </c>
+      <c r="H10">
+        <v>-0.02404291331770104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0452685719889268</v>
+        <v>-0.032332654492806</v>
       </c>
       <c r="C11">
-        <v>-0.005884847791572417</v>
+        <v>-0.01539604256207617</v>
       </c>
       <c r="D11">
-        <v>0.03097058714504297</v>
+        <v>-0.03088915649541501</v>
       </c>
       <c r="E11">
-        <v>0.01510200497143185</v>
+        <v>0.005901634776936809</v>
       </c>
       <c r="F11">
-        <v>-0.0393255448397698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01386667711110233</v>
+      </c>
+      <c r="G11">
+        <v>-0.04611174215712227</v>
+      </c>
+      <c r="H11">
+        <v>-0.008752026777241486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04508980077742263</v>
+        <v>-0.03724374460129359</v>
       </c>
       <c r="C12">
-        <v>-0.007264020019975416</v>
+        <v>-0.01287790037548202</v>
       </c>
       <c r="D12">
-        <v>0.02763045489614811</v>
+        <v>-0.02998082151978901</v>
       </c>
       <c r="E12">
-        <v>0.03347676018426128</v>
+        <v>-0.005434870112801179</v>
       </c>
       <c r="F12">
-        <v>-0.02224738879093613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02185861774965419</v>
+      </c>
+      <c r="G12">
+        <v>-0.01567226918061115</v>
+      </c>
+      <c r="H12">
+        <v>-0.00696709939889695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.04946928818680506</v>
+        <v>-0.03778411860153514</v>
       </c>
       <c r="C13">
-        <v>-0.0215163956394264</v>
+        <v>0.006717774267771304</v>
       </c>
       <c r="D13">
-        <v>0.05219140072947918</v>
+        <v>-0.01647674928053808</v>
       </c>
       <c r="E13">
-        <v>-0.00898486284708635</v>
+        <v>0.01850619911366371</v>
       </c>
       <c r="F13">
-        <v>-0.1098769261135535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.01676065067322282</v>
+      </c>
+      <c r="G13">
+        <v>-0.09068623184430022</v>
+      </c>
+      <c r="H13">
+        <v>-0.03251015896536098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02368227820422053</v>
+        <v>-0.01957306633046145</v>
       </c>
       <c r="C14">
-        <v>-0.01779135679675936</v>
+        <v>-0.002806442160615267</v>
       </c>
       <c r="D14">
-        <v>0.04153892201528941</v>
+        <v>-0.01164879214405867</v>
       </c>
       <c r="E14">
-        <v>0.02521465355012183</v>
+        <v>-0.005646766867286916</v>
       </c>
       <c r="F14">
-        <v>-0.04390498870305087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.0284129689092116</v>
+      </c>
+      <c r="G14">
+        <v>-0.04301649359214969</v>
+      </c>
+      <c r="H14">
+        <v>-0.0643932462353268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0371914655720004</v>
+        <v>-0.03048010562094425</v>
       </c>
       <c r="C16">
-        <v>-0.005711696853732275</v>
+        <v>-0.01474039371393902</v>
       </c>
       <c r="D16">
-        <v>0.02718986976798766</v>
+        <v>-0.02919168233696185</v>
       </c>
       <c r="E16">
-        <v>0.015455802869405</v>
+        <v>0.0005645801200604577</v>
       </c>
       <c r="F16">
-        <v>-0.0293911407825971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01903178095144453</v>
+      </c>
+      <c r="G16">
+        <v>-0.03406694137086187</v>
+      </c>
+      <c r="H16">
+        <v>-0.008106482293159127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.05587727507627328</v>
+        <v>-0.04092454264130879</v>
       </c>
       <c r="C19">
-        <v>0.0007468388186320914</v>
+        <v>-0.006308311207597043</v>
       </c>
       <c r="D19">
-        <v>0.04534828897293756</v>
+        <v>-0.03205569207701446</v>
       </c>
       <c r="E19">
-        <v>0.01043800514559792</v>
+        <v>0.006265752203406152</v>
       </c>
       <c r="F19">
-        <v>-0.08488404825526315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02295663194442602</v>
+      </c>
+      <c r="G19">
+        <v>-0.0881601681124792</v>
+      </c>
+      <c r="H19">
+        <v>-0.04311851385702296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01522066785064657</v>
+        <v>-0.01218430768812504</v>
       </c>
       <c r="C20">
-        <v>-0.01203697783628112</v>
+        <v>0.004632029898937231</v>
       </c>
       <c r="D20">
-        <v>0.04515988960042957</v>
+        <v>-0.01735628918971495</v>
       </c>
       <c r="E20">
-        <v>0.03690578877463451</v>
+        <v>-0.003195372797169414</v>
       </c>
       <c r="F20">
-        <v>-0.05738987912965395</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02137164020938957</v>
+      </c>
+      <c r="G20">
+        <v>-0.05464584146350517</v>
+      </c>
+      <c r="H20">
+        <v>-0.05906929124435828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0162426861808476</v>
+        <v>-0.02484969408799927</v>
       </c>
       <c r="C21">
-        <v>0.006342786616907329</v>
+        <v>0.003645724642815479</v>
       </c>
       <c r="D21">
-        <v>0.03890158753663826</v>
+        <v>-0.01653949994168924</v>
       </c>
       <c r="E21">
-        <v>0.01800158103822964</v>
+        <v>-0.01083931450813273</v>
       </c>
       <c r="F21">
-        <v>-0.09781520330056248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.006805782870670742</v>
+      </c>
+      <c r="G21">
+        <v>-0.07361940077434678</v>
+      </c>
+      <c r="H21">
+        <v>-0.03087955085527132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03494862565577169</v>
+        <v>-0.0298432510176668</v>
       </c>
       <c r="C24">
-        <v>-0.005881454565105445</v>
+        <v>-0.009704532542880638</v>
       </c>
       <c r="D24">
-        <v>0.02381567320096029</v>
+        <v>-0.02633289548078399</v>
       </c>
       <c r="E24">
-        <v>0.0161968641364859</v>
+        <v>2.806026134346363e-05</v>
       </c>
       <c r="F24">
-        <v>-0.03849923848655747</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.01571855103648011</v>
+      </c>
+      <c r="G24">
+        <v>-0.03608341220008897</v>
+      </c>
+      <c r="H24">
+        <v>-0.004597278819165144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03965199289868489</v>
+        <v>-0.03953366326987675</v>
       </c>
       <c r="C25">
-        <v>-0.005068844297259396</v>
+        <v>-0.008111350470120814</v>
       </c>
       <c r="D25">
-        <v>0.02691175258425351</v>
+        <v>-0.0268925668460688</v>
       </c>
       <c r="E25">
-        <v>0.02288791176980437</v>
+        <v>-0.0003523075867784905</v>
       </c>
       <c r="F25">
-        <v>-0.04627390967762052</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01931857047475526</v>
+      </c>
+      <c r="G25">
+        <v>-0.04425240383636708</v>
+      </c>
+      <c r="H25">
+        <v>-9.725689856165797e-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01897264141190137</v>
+        <v>-0.01793731336996544</v>
       </c>
       <c r="C26">
-        <v>0.005324248235536486</v>
+        <v>0.01677234050343931</v>
       </c>
       <c r="D26">
-        <v>0.05080440197266419</v>
+        <v>-0.01879223656005724</v>
       </c>
       <c r="E26">
-        <v>0.006509026301193277</v>
+        <v>0.004937924230237691</v>
       </c>
       <c r="F26">
-        <v>-0.04754799367571506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.005787844556194365</v>
+      </c>
+      <c r="G26">
+        <v>-0.04846297850952223</v>
+      </c>
+      <c r="H26">
+        <v>-0.0431289915667394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.09970297532606676</v>
+        <v>-0.05073930336231599</v>
       </c>
       <c r="C27">
-        <v>-0.04749028837535189</v>
+        <v>-0.02280859189375439</v>
       </c>
       <c r="D27">
-        <v>0.03426896653055723</v>
+        <v>-0.009627897453523802</v>
       </c>
       <c r="E27">
-        <v>0.03541117375815566</v>
+        <v>0.0009720735152384356</v>
       </c>
       <c r="F27">
-        <v>-0.06198254734687955</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.02761758153950196</v>
+      </c>
+      <c r="G27">
+        <v>-0.04726178576126892</v>
+      </c>
+      <c r="H27">
+        <v>-0.03070494043281713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05241971247801663</v>
+        <v>-0.08211437987018678</v>
       </c>
       <c r="C28">
-        <v>-0.09231627013836081</v>
+        <v>-0.008714705260949269</v>
       </c>
       <c r="D28">
-        <v>-0.1816939808555392</v>
+        <v>0.2459709031487029</v>
       </c>
       <c r="E28">
-        <v>-0.1358173710140415</v>
+        <v>0.01463421796563881</v>
       </c>
       <c r="F28">
-        <v>-0.05566513262712738</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.07731421270349202</v>
+      </c>
+      <c r="G28">
+        <v>-0.02276189878185951</v>
+      </c>
+      <c r="H28">
+        <v>-0.04702546175387966</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02338694159695264</v>
+        <v>-0.02014557776144703</v>
       </c>
       <c r="C29">
-        <v>-0.01291862374837931</v>
+        <v>-0.003242934719313389</v>
       </c>
       <c r="D29">
-        <v>0.03980072350862048</v>
+        <v>-0.01308860728430099</v>
       </c>
       <c r="E29">
-        <v>0.036293623664585</v>
+        <v>-0.007945641749050361</v>
       </c>
       <c r="F29">
-        <v>-0.02878423558435949</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03071031362504054</v>
+      </c>
+      <c r="G29">
+        <v>-0.03753691600156418</v>
+      </c>
+      <c r="H29">
+        <v>-0.06439639223032569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0978622067124278</v>
+        <v>-0.07707276460264009</v>
       </c>
       <c r="C30">
-        <v>-0.05171323441555414</v>
+        <v>-0.01121877219522445</v>
       </c>
       <c r="D30">
-        <v>0.06581811403015508</v>
+        <v>-0.04386114024764689</v>
       </c>
       <c r="E30">
-        <v>0.02486481492253635</v>
+        <v>0.04300400931709323</v>
       </c>
       <c r="F30">
-        <v>-0.08941341376150679</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.05782205506973554</v>
+      </c>
+      <c r="G30">
+        <v>-0.09686044805364809</v>
+      </c>
+      <c r="H30">
+        <v>-0.004979536109582063</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06046864349046194</v>
+        <v>-0.05362573989726627</v>
       </c>
       <c r="C31">
-        <v>-0.01507129818137034</v>
+        <v>-0.01921684856291304</v>
       </c>
       <c r="D31">
-        <v>0.03976434001021096</v>
+        <v>-0.01395269005914738</v>
       </c>
       <c r="E31">
-        <v>-0.02374347596655393</v>
+        <v>0.01019965309644594</v>
       </c>
       <c r="F31">
-        <v>-0.01558594707749279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01483591134329802</v>
+      </c>
+      <c r="G31">
+        <v>-0.01628664757115502</v>
+      </c>
+      <c r="H31">
+        <v>-0.06087628004442271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.05047170593104542</v>
+        <v>-0.02140973512903515</v>
       </c>
       <c r="C32">
-        <v>-0.01957785342454034</v>
+        <v>-0.02005574846058792</v>
       </c>
       <c r="D32">
-        <v>0.05063615234185656</v>
+        <v>-0.02674463077824115</v>
       </c>
       <c r="E32">
-        <v>0.04103372814694915</v>
+        <v>-0.01357441537724828</v>
       </c>
       <c r="F32">
-        <v>-0.06698818827642236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04802152654441894</v>
+      </c>
+      <c r="G32">
+        <v>-0.07702376945839778</v>
+      </c>
+      <c r="H32">
+        <v>-0.006026364184952868</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0539682192149081</v>
+        <v>-0.04348391198843888</v>
       </c>
       <c r="C33">
-        <v>0.0005833558124974491</v>
+        <v>-0.007531044227764052</v>
       </c>
       <c r="D33">
-        <v>0.07174873302804416</v>
+        <v>-0.03964093947583965</v>
       </c>
       <c r="E33">
-        <v>0.01936521707712005</v>
+        <v>0.0220265924867689</v>
       </c>
       <c r="F33">
-        <v>-0.08590338546495689</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01373176708728206</v>
+      </c>
+      <c r="G33">
+        <v>-0.07732451516620148</v>
+      </c>
+      <c r="H33">
+        <v>-0.0513467454641122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03932100612511841</v>
+        <v>-0.03152633537962779</v>
       </c>
       <c r="C34">
-        <v>-0.01234087943206042</v>
+        <v>-0.02270557804862535</v>
       </c>
       <c r="D34">
-        <v>0.03104620987911301</v>
+        <v>-0.0276971289486249</v>
       </c>
       <c r="E34">
-        <v>0.02250383006047063</v>
+        <v>-0.005036086153776092</v>
       </c>
       <c r="F34">
-        <v>-0.03885967230814728</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02545876064349376</v>
+      </c>
+      <c r="G34">
+        <v>-0.03835167483323947</v>
+      </c>
+      <c r="H34">
+        <v>-0.004475137960649848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01759798646835817</v>
+        <v>-0.01932802279154301</v>
       </c>
       <c r="C36">
-        <v>-0.01215250796475182</v>
+        <v>0.003103468964890732</v>
       </c>
       <c r="D36">
-        <v>0.00788993548238081</v>
+        <v>0.002420974349449829</v>
       </c>
       <c r="E36">
-        <v>0.008116000827367714</v>
+        <v>-0.002151869169291717</v>
       </c>
       <c r="F36">
-        <v>-0.03240068820847748</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.009136609841625299</v>
+      </c>
+      <c r="G36">
+        <v>-0.03242700373183546</v>
+      </c>
+      <c r="H36">
+        <v>-0.03530262610273936</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01074364418071767</v>
+        <v>-0.01669962789054957</v>
       </c>
       <c r="C38">
-        <v>-0.006431090207614503</v>
+        <v>-0.0157741516802814</v>
       </c>
       <c r="D38">
-        <v>-0.01271478488732571</v>
+        <v>-0.002038292570696567</v>
       </c>
       <c r="E38">
-        <v>0.003648515817719099</v>
+        <v>-0.003718010030003544</v>
       </c>
       <c r="F38">
-        <v>-0.03044740198696939</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.002090768026126021</v>
+      </c>
+      <c r="G38">
+        <v>-0.04274279011097345</v>
+      </c>
+      <c r="H38">
+        <v>-0.02004022014533145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.051682736218032</v>
+        <v>-0.03817915258075995</v>
       </c>
       <c r="C39">
-        <v>-0.01363309387971047</v>
+        <v>-0.0127806402592807</v>
       </c>
       <c r="D39">
-        <v>0.04882527526843985</v>
+        <v>-0.05009320417012095</v>
       </c>
       <c r="E39">
-        <v>0.01195755795138447</v>
+        <v>0.005523271103860292</v>
       </c>
       <c r="F39">
-        <v>-0.03671034386553611</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.03545513786948259</v>
+      </c>
+      <c r="G39">
+        <v>-0.05470983709669978</v>
+      </c>
+      <c r="H39">
+        <v>0.006093735479024891</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.05447232388411132</v>
+        <v>-0.04472335760569884</v>
       </c>
       <c r="C40">
-        <v>-0.03662513328759832</v>
+        <v>-0.01066967566529872</v>
       </c>
       <c r="D40">
-        <v>0.07963666757996042</v>
+        <v>-0.03610507675851517</v>
       </c>
       <c r="E40">
-        <v>-0.002369355772033021</v>
+        <v>0.024538749129119</v>
       </c>
       <c r="F40">
-        <v>-0.08389093172563755</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03257464733072461</v>
+      </c>
+      <c r="G40">
+        <v>-0.07161993069353709</v>
+      </c>
+      <c r="H40">
+        <v>-0.03218233463358326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01096084869137106</v>
+        <v>-0.001172557090755966</v>
       </c>
       <c r="C41">
-        <v>0.00709442928401442</v>
+        <v>0.003441050061728804</v>
       </c>
       <c r="D41">
-        <v>0.02516188377326193</v>
+        <v>-0.001622776151737786</v>
       </c>
       <c r="E41">
-        <v>0.01924001247361131</v>
+        <v>-0.0004618951239075044</v>
       </c>
       <c r="F41">
-        <v>-0.005115219051735429</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.003486528043337979</v>
+      </c>
+      <c r="G41">
+        <v>-0.008833291733146361</v>
+      </c>
+      <c r="H41">
+        <v>-0.05633683969947092</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3561237080297645</v>
+        <v>-0.2591981279411429</v>
       </c>
       <c r="C42">
-        <v>0.8766026809299255</v>
+        <v>0.03447585684648284</v>
       </c>
       <c r="D42">
-        <v>-0.1084561954491032</v>
+        <v>-0.4077108853931667</v>
       </c>
       <c r="E42">
-        <v>-0.2444100176036142</v>
+        <v>0.03890322051170701</v>
       </c>
       <c r="F42">
-        <v>0.04738980091403432</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8521501901991059</v>
+      </c>
+      <c r="G42">
+        <v>0.1175124234653411</v>
+      </c>
+      <c r="H42">
+        <v>-0.0217079308616747</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0124381455716869</v>
+        <v>-0.0005461160859960067</v>
       </c>
       <c r="C43">
-        <v>0.003398180571256029</v>
+        <v>0.004971697631743081</v>
       </c>
       <c r="D43">
-        <v>0.02833522778030313</v>
+        <v>-0.001475440720043858</v>
       </c>
       <c r="E43">
-        <v>0.01192737115071177</v>
+        <v>0.002970553612328355</v>
       </c>
       <c r="F43">
-        <v>-0.02920759530011035</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.0002718856353301918</v>
+      </c>
+      <c r="G43">
+        <v>-0.02067136741644695</v>
+      </c>
+      <c r="H43">
+        <v>-0.04934126437852396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.03139941821729395</v>
+        <v>-0.01567117489559894</v>
       </c>
       <c r="C44">
-        <v>-0.001513402736846728</v>
+        <v>-0.002853977549065398</v>
       </c>
       <c r="D44">
-        <v>0.05985762085345124</v>
+        <v>-0.02470420429829135</v>
       </c>
       <c r="E44">
-        <v>0.02488521640751523</v>
+        <v>-0.002363912752207358</v>
       </c>
       <c r="F44">
-        <v>-0.1587200912251321</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.007125432701098579</v>
+      </c>
+      <c r="G44">
+        <v>-0.1191352773315215</v>
+      </c>
+      <c r="H44">
+        <v>-0.08814959082875043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02471749560394704</v>
+        <v>-0.020382575642521</v>
       </c>
       <c r="C46">
-        <v>-0.01211886305083054</v>
+        <v>-0.000365206374135945</v>
       </c>
       <c r="D46">
-        <v>0.05598765492039037</v>
+        <v>-0.02542910352978612</v>
       </c>
       <c r="E46">
-        <v>0.02616911071799899</v>
+        <v>0.00463486575091503</v>
       </c>
       <c r="F46">
-        <v>-0.02645547092081355</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03814723329705549</v>
+      </c>
+      <c r="G46">
+        <v>-0.05112159400032451</v>
+      </c>
+      <c r="H46">
+        <v>-0.06514814606879703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09149289482485834</v>
+        <v>-0.07831152325983727</v>
       </c>
       <c r="C47">
-        <v>-0.02995700186464526</v>
+        <v>-0.03855324396415793</v>
       </c>
       <c r="D47">
-        <v>0.03650806962500393</v>
+        <v>-0.01971183119548399</v>
       </c>
       <c r="E47">
-        <v>0.01563493461023457</v>
+        <v>0.00620776094211363</v>
       </c>
       <c r="F47">
-        <v>0.01141541333585839</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02907824645590486</v>
+      </c>
+      <c r="G47">
+        <v>0.01422142057999666</v>
+      </c>
+      <c r="H47">
+        <v>-0.07333819905033369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01298036064302016</v>
+        <v>-0.01771256990918374</v>
       </c>
       <c r="C48">
-        <v>-0.007914819325869391</v>
+        <v>-0.006655899906086758</v>
       </c>
       <c r="D48">
-        <v>0.03141316915557078</v>
+        <v>-0.008715302667583955</v>
       </c>
       <c r="E48">
-        <v>0.01473119388432257</v>
+        <v>0.0004359911011482809</v>
       </c>
       <c r="F48">
-        <v>-0.04614484768130074</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01204841072244193</v>
+      </c>
+      <c r="G48">
+        <v>-0.03617672357985951</v>
+      </c>
+      <c r="H48">
+        <v>-0.03082260675490305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09095032424140553</v>
+        <v>-0.07476858837371743</v>
       </c>
       <c r="C50">
-        <v>-0.008712298758203695</v>
+        <v>-0.0337465838598492</v>
       </c>
       <c r="D50">
-        <v>0.04150898362277463</v>
+        <v>-0.03283317318888163</v>
       </c>
       <c r="E50">
-        <v>0.005168092065228028</v>
+        <v>-0.00704735168048286</v>
       </c>
       <c r="F50">
-        <v>-0.004644453587116377</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01662714084810415</v>
+      </c>
+      <c r="G50">
+        <v>-0.01449799021642875</v>
+      </c>
+      <c r="H50">
+        <v>-0.0592267141245081</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.04788167811211616</v>
+        <v>-0.0249663313478681</v>
       </c>
       <c r="C51">
-        <v>-0.002044554542917304</v>
+        <v>-0.002446519167611216</v>
       </c>
       <c r="D51">
-        <v>0.02896341192768844</v>
+        <v>0.005488883383317453</v>
       </c>
       <c r="E51">
-        <v>-0.04130527211578797</v>
+        <v>0.01228939070328452</v>
       </c>
       <c r="F51">
-        <v>-0.1237711116247477</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01685984274921304</v>
+      </c>
+      <c r="G51">
+        <v>-0.09411354869712013</v>
+      </c>
+      <c r="H51">
+        <v>-0.06744927343132798</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1177934649524167</v>
+        <v>-0.1043034624360116</v>
       </c>
       <c r="C53">
-        <v>-0.0251218673495012</v>
+        <v>-0.05120234820256647</v>
       </c>
       <c r="D53">
-        <v>0.07097211014234393</v>
+        <v>-0.05233756862277823</v>
       </c>
       <c r="E53">
-        <v>0.01801289143028888</v>
+        <v>0.005604500810883651</v>
       </c>
       <c r="F53">
-        <v>0.07636088066303395</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05602064886470304</v>
+      </c>
+      <c r="G53">
+        <v>0.05383768542144639</v>
+      </c>
+      <c r="H53">
+        <v>-0.02923377401123172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02152384823203233</v>
+        <v>-0.01927466723269027</v>
       </c>
       <c r="C54">
-        <v>-0.02421802198354842</v>
+        <v>-0.0123904940938337</v>
       </c>
       <c r="D54">
-        <v>0.02441089091818086</v>
+        <v>0.007396634468076016</v>
       </c>
       <c r="E54">
-        <v>0.01914520317397729</v>
+        <v>-0.002845432102612823</v>
       </c>
       <c r="F54">
-        <v>-0.0496917281404104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02248922932510814</v>
+      </c>
+      <c r="G54">
+        <v>-0.04311976045037073</v>
+      </c>
+      <c r="H54">
+        <v>-0.06820724113667986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1009669215370451</v>
+        <v>-0.0875513840080676</v>
       </c>
       <c r="C55">
-        <v>-0.02335231824113341</v>
+        <v>-0.04373489672381076</v>
       </c>
       <c r="D55">
-        <v>0.01983128944442148</v>
+        <v>-0.04318049629362422</v>
       </c>
       <c r="E55">
-        <v>0.04426839786075929</v>
+        <v>-0.009337641657324109</v>
       </c>
       <c r="F55">
-        <v>0.06298282640211711</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04556980276516802</v>
+      </c>
+      <c r="G55">
+        <v>0.04377132934847034</v>
+      </c>
+      <c r="H55">
+        <v>-0.04042425261461481</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1380125584251425</v>
+        <v>-0.1362709564746597</v>
       </c>
       <c r="C56">
-        <v>-0.06672509806698965</v>
+        <v>-0.07272127169356093</v>
       </c>
       <c r="D56">
-        <v>0.04635568690367139</v>
+        <v>-0.04619867041550459</v>
       </c>
       <c r="E56">
-        <v>0.04429838493384016</v>
+        <v>0.0007183539223159668</v>
       </c>
       <c r="F56">
-        <v>0.1397245562306265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.08037082754809882</v>
+      </c>
+      <c r="G56">
+        <v>0.1013382948929296</v>
+      </c>
+      <c r="H56">
+        <v>0.004502840183430443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.06153589489040386</v>
+        <v>-0.05601232268661146</v>
       </c>
       <c r="C57">
-        <v>-0.0189970713444725</v>
+        <v>0.0003251141462980085</v>
       </c>
       <c r="D57">
-        <v>0.04470310237726657</v>
+        <v>-0.0232153680480174</v>
       </c>
       <c r="E57">
-        <v>-0.009267568565745839</v>
+        <v>0.01735232364378854</v>
       </c>
       <c r="F57">
-        <v>-0.07508466711355689</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.00539353011821089</v>
+      </c>
+      <c r="G57">
+        <v>-0.05669203419095927</v>
+      </c>
+      <c r="H57">
+        <v>-0.02561889222099292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2271174701551117</v>
+        <v>-0.1735055798907045</v>
       </c>
       <c r="C58">
-        <v>-0.04851576531801755</v>
+        <v>-0.06653191897274346</v>
       </c>
       <c r="D58">
-        <v>0.1312356322085476</v>
+        <v>-0.06830338609242381</v>
       </c>
       <c r="E58">
-        <v>0.01359850282969448</v>
+        <v>0.1101040509387715</v>
       </c>
       <c r="F58">
-        <v>-0.202099801705155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.0155294187473883</v>
+      </c>
+      <c r="G58">
+        <v>-0.4317494242938749</v>
+      </c>
+      <c r="H58">
+        <v>-0.3303988030241454</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05717519890332441</v>
+        <v>-0.08413239864747285</v>
       </c>
       <c r="C59">
-        <v>-0.1141834914822787</v>
+        <v>-0.017863868709041</v>
       </c>
       <c r="D59">
-        <v>-0.1310627861656533</v>
+        <v>0.2159363654423671</v>
       </c>
       <c r="E59">
-        <v>-0.08797687029761904</v>
+        <v>0.03030626653085814</v>
       </c>
       <c r="F59">
-        <v>-0.03768837286860218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.04179785419515713</v>
+      </c>
+      <c r="G59">
+        <v>-0.04407596581498781</v>
+      </c>
+      <c r="H59">
+        <v>-0.007716725591677427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1747745758781989</v>
+        <v>-0.1835094037037762</v>
       </c>
       <c r="C60">
-        <v>-0.07706629035139619</v>
+        <v>-0.05574885988367376</v>
       </c>
       <c r="D60">
-        <v>0.01135821584271192</v>
+        <v>0.02959691445227419</v>
       </c>
       <c r="E60">
-        <v>-0.07898128204694572</v>
+        <v>0.0671789840106858</v>
       </c>
       <c r="F60">
-        <v>-0.1446490824190271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.01488686981462103</v>
+      </c>
+      <c r="G60">
+        <v>-0.186579642720605</v>
+      </c>
+      <c r="H60">
+        <v>0.3744117049283034</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0328358340187329</v>
+        <v>-0.03232759294470211</v>
       </c>
       <c r="C61">
-        <v>-0.009181612888664686</v>
+        <v>-0.01375819210924324</v>
       </c>
       <c r="D61">
-        <v>0.01945897355532596</v>
+        <v>-0.03218818288350484</v>
       </c>
       <c r="E61">
-        <v>0.01867257262055598</v>
+        <v>-0.0006907643129265901</v>
       </c>
       <c r="F61">
-        <v>-0.0336676476199689</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02545498386568705</v>
+      </c>
+      <c r="G61">
+        <v>-0.04020316849210185</v>
+      </c>
+      <c r="H61">
+        <v>0.01357157806060155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0242104751167725</v>
+        <v>-0.02129489332749781</v>
       </c>
       <c r="C63">
-        <v>-0.0200148522523586</v>
+        <v>-0.003286453229094399</v>
       </c>
       <c r="D63">
-        <v>0.04821877785963099</v>
+        <v>-0.02064132097379872</v>
       </c>
       <c r="E63">
-        <v>0.02574863172573774</v>
+        <v>0.001074583472694531</v>
       </c>
       <c r="F63">
-        <v>-0.03912921051871631</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02515711531285199</v>
+      </c>
+      <c r="G63">
+        <v>-0.03335549895832206</v>
+      </c>
+      <c r="H63">
+        <v>-0.05443007112977048</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05114182516205216</v>
+        <v>-0.04778677970513816</v>
       </c>
       <c r="C64">
-        <v>-0.01113337584930676</v>
+        <v>-0.01822178026580207</v>
       </c>
       <c r="D64">
-        <v>0.04471418763351197</v>
+        <v>-0.04021082282609872</v>
       </c>
       <c r="E64">
-        <v>0.06142720497030872</v>
+        <v>-0.009217168445322397</v>
       </c>
       <c r="F64">
-        <v>-0.05712245907985213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.02870470127502099</v>
+      </c>
+      <c r="G64">
+        <v>-0.03988634697742584</v>
+      </c>
+      <c r="H64">
+        <v>-0.03082686490727373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.006513723678393145</v>
+        <v>-0.03786686419729435</v>
       </c>
       <c r="C65">
-        <v>-0.001593963603711525</v>
+        <v>-0.001576060846592721</v>
       </c>
       <c r="D65">
-        <v>0.0007357614747603586</v>
+        <v>-0.01857987441263777</v>
       </c>
       <c r="E65">
-        <v>-0.00553834767201848</v>
+        <v>-0.002852299364650112</v>
       </c>
       <c r="F65">
-        <v>-0.0009209790403165241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.02646439455939536</v>
+      </c>
+      <c r="G65">
+        <v>-0.006692289066545634</v>
+      </c>
+      <c r="H65">
+        <v>0.04152289341993241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.05052103821243298</v>
+        <v>-0.04603371397275121</v>
       </c>
       <c r="C66">
-        <v>-0.02812651298067212</v>
+        <v>-0.01911300938553844</v>
       </c>
       <c r="D66">
-        <v>0.05821162140807855</v>
+        <v>-0.05494012222828063</v>
       </c>
       <c r="E66">
-        <v>0.02980600191517992</v>
+        <v>0.01297679031259899</v>
       </c>
       <c r="F66">
-        <v>-0.07694846796737018</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06041444787516195</v>
+      </c>
+      <c r="G66">
+        <v>-0.06458392830681565</v>
+      </c>
+      <c r="H66">
+        <v>0.02077256954046217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02812900193044423</v>
+        <v>-0.0343360346300013</v>
       </c>
       <c r="C67">
-        <v>-0.01691773013503668</v>
+        <v>-0.01919534426369497</v>
       </c>
       <c r="D67">
-        <v>-0.02484918462617616</v>
+        <v>0.009798699570310779</v>
       </c>
       <c r="E67">
-        <v>-0.01201486213107575</v>
+        <v>0.001199606849653223</v>
       </c>
       <c r="F67">
-        <v>-0.03619898048719482</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.003661550220024218</v>
+      </c>
+      <c r="G67">
+        <v>-0.03543178188371567</v>
+      </c>
+      <c r="H67">
+        <v>-0.001357678490474083</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06423222442186743</v>
+        <v>-0.08960000130839231</v>
       </c>
       <c r="C68">
-        <v>-0.1042578410018907</v>
+        <v>0.002828746530211616</v>
       </c>
       <c r="D68">
-        <v>-0.1863674771864547</v>
+        <v>0.2358292412956719</v>
       </c>
       <c r="E68">
-        <v>-0.1295722561060685</v>
+        <v>0.02478220684579532</v>
       </c>
       <c r="F68">
-        <v>0.007722828684991639</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.07044669526042932</v>
+      </c>
+      <c r="G68">
+        <v>-0.000347640772702626</v>
+      </c>
+      <c r="H68">
+        <v>-0.04029357393097668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0750083844272867</v>
+        <v>-0.06375475144829831</v>
       </c>
       <c r="C69">
-        <v>-0.03109611803939046</v>
+        <v>-0.03575025842042746</v>
       </c>
       <c r="D69">
-        <v>0.02172596873736009</v>
+        <v>-0.01387266321648247</v>
       </c>
       <c r="E69">
-        <v>-0.004169001160264451</v>
+        <v>0.008820006162411844</v>
       </c>
       <c r="F69">
-        <v>-0.00227104919375756</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.0247064833067217</v>
+      </c>
+      <c r="G69">
+        <v>-0.001253236455497089</v>
+      </c>
+      <c r="H69">
+        <v>-0.04851821044406989</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06366605551496564</v>
+        <v>-0.08662472873380211</v>
       </c>
       <c r="C71">
-        <v>-0.1217377806657872</v>
+        <v>-0.005351559916940221</v>
       </c>
       <c r="D71">
-        <v>-0.2298768927636492</v>
+        <v>0.2510828503889418</v>
       </c>
       <c r="E71">
-        <v>-0.2119645003270562</v>
+        <v>0.03122528639841225</v>
       </c>
       <c r="F71">
-        <v>-0.05900315632660034</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.09419277174156949</v>
+      </c>
+      <c r="G71">
+        <v>-0.01909147400715147</v>
+      </c>
+      <c r="H71">
+        <v>-0.01434624794908832</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1256499656247724</v>
+        <v>-0.1186804776907881</v>
       </c>
       <c r="C72">
-        <v>-0.09515696247741882</v>
+        <v>-0.06507448119264009</v>
       </c>
       <c r="D72">
-        <v>0.05013063858005113</v>
+        <v>-0.04255571603283903</v>
       </c>
       <c r="E72">
-        <v>0.03065292576942495</v>
+        <v>0.02015087784099866</v>
       </c>
       <c r="F72">
-        <v>-0.02010159983694532</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1033905578302573</v>
+      </c>
+      <c r="G72">
+        <v>-0.1090157286463064</v>
+      </c>
+      <c r="H72">
+        <v>0.09467787564806773</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2523088039108513</v>
+        <v>-0.2562461518126687</v>
       </c>
       <c r="C73">
-        <v>-0.1170974971042907</v>
+        <v>-0.07405399405290104</v>
       </c>
       <c r="D73">
-        <v>-0.03568367799735343</v>
+        <v>0.02028501673700809</v>
       </c>
       <c r="E73">
-        <v>-0.116682119048248</v>
+        <v>0.1003903586669178</v>
       </c>
       <c r="F73">
-        <v>-0.268062114524501</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.001278994095734926</v>
+      </c>
+      <c r="G73">
+        <v>-0.2537074879468156</v>
+      </c>
+      <c r="H73">
+        <v>0.5486632927414143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1296938015974295</v>
+        <v>-0.1259760834493825</v>
       </c>
       <c r="C74">
-        <v>-0.0296675820498255</v>
+        <v>-0.06607458849155398</v>
       </c>
       <c r="D74">
-        <v>0.03783957213694419</v>
+        <v>-0.04986642865683639</v>
       </c>
       <c r="E74">
-        <v>0.02096984933606349</v>
+        <v>0.00868625241605739</v>
       </c>
       <c r="F74">
-        <v>0.11520713703657</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.0559801734821399</v>
+      </c>
+      <c r="G74">
+        <v>0.08786252719892954</v>
+      </c>
+      <c r="H74">
+        <v>0.005794229639659022</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2200858199041562</v>
+        <v>-0.2316863944757827</v>
       </c>
       <c r="C75">
-        <v>-0.09708450272232397</v>
+        <v>-0.125220942267049</v>
       </c>
       <c r="D75">
-        <v>0.08920638542833199</v>
+        <v>-0.06369453136722254</v>
       </c>
       <c r="E75">
-        <v>0.02208209270990821</v>
+        <v>0.0314922508414234</v>
       </c>
       <c r="F75">
-        <v>0.1779753821252253</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1290662391999652</v>
+      </c>
+      <c r="G75">
+        <v>0.1701955114878151</v>
+      </c>
+      <c r="H75">
+        <v>-0.01735496360494359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2372936632666237</v>
+        <v>-0.2232944659089351</v>
       </c>
       <c r="C76">
-        <v>-0.1173846325844819</v>
+        <v>-0.1231943569543693</v>
       </c>
       <c r="D76">
-        <v>0.02901425194639512</v>
+        <v>-0.04978515711139747</v>
       </c>
       <c r="E76">
-        <v>0.07040208714651675</v>
+        <v>-0.01105726215434299</v>
       </c>
       <c r="F76">
-        <v>0.2018297789706593</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.141712183441179</v>
+      </c>
+      <c r="G76">
+        <v>0.1882338752269606</v>
+      </c>
+      <c r="H76">
+        <v>-0.0296453698196416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1563989669065214</v>
+        <v>-0.1014409055792253</v>
       </c>
       <c r="C77">
-        <v>0.01966362380128864</v>
+        <v>-0.02880796802439649</v>
       </c>
       <c r="D77">
-        <v>0.07811863034766861</v>
+        <v>-0.07121622318052215</v>
       </c>
       <c r="E77">
-        <v>0.004306489792606159</v>
+        <v>0.01379612414209348</v>
       </c>
       <c r="F77">
-        <v>-0.2138565717489241</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01705879835710031</v>
+      </c>
+      <c r="G77">
+        <v>-0.1517621588973603</v>
+      </c>
+      <c r="H77">
+        <v>-0.1983774289323814</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08077938027151357</v>
+        <v>-0.05497040483390751</v>
       </c>
       <c r="C78">
-        <v>0.00653280060447169</v>
+        <v>-0.02274012050637976</v>
       </c>
       <c r="D78">
-        <v>0.08136839670961465</v>
+        <v>-0.05721337934834061</v>
       </c>
       <c r="E78">
-        <v>0.05410140817953202</v>
+        <v>-0.0007300146058187737</v>
       </c>
       <c r="F78">
-        <v>-0.04944359164431333</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.0399078291534045</v>
+      </c>
+      <c r="G78">
+        <v>-0.07636190373327716</v>
+      </c>
+      <c r="H78">
+        <v>-0.02710473295094521</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1554488196171187</v>
+        <v>-0.1675386814998582</v>
       </c>
       <c r="C80">
-        <v>0.09762685364734304</v>
+        <v>-0.05562768144246523</v>
       </c>
       <c r="D80">
-        <v>-0.5682036422257901</v>
+        <v>0.05648577455987244</v>
       </c>
       <c r="E80">
-        <v>0.7751639267397411</v>
+        <v>-0.9669776864486028</v>
       </c>
       <c r="F80">
-        <v>-0.1176546362947596</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.04486717375991948</v>
+      </c>
+      <c r="G80">
+        <v>-0.09097406574476857</v>
+      </c>
+      <c r="H80">
+        <v>0.0314206943553088</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1712212254735486</v>
+        <v>-0.1708716474255869</v>
       </c>
       <c r="C81">
-        <v>-0.0752710249574222</v>
+        <v>-0.09066755388352106</v>
       </c>
       <c r="D81">
-        <v>0.04932605260440329</v>
+        <v>-0.04367833438352845</v>
       </c>
       <c r="E81">
-        <v>0.03126293592328812</v>
+        <v>0.008811914006274284</v>
       </c>
       <c r="F81">
-        <v>0.198053718561024</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09758939280853056</v>
+      </c>
+      <c r="G81">
+        <v>0.1298768889314174</v>
+      </c>
+      <c r="H81">
+        <v>-0.02857085521101177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05496370245195525</v>
+        <v>-0.04159125499030655</v>
       </c>
       <c r="C83">
-        <v>0.02215659003112071</v>
+        <v>-0.01269462770934303</v>
       </c>
       <c r="D83">
-        <v>0.06115051909328505</v>
+        <v>-0.03083801696259033</v>
       </c>
       <c r="E83">
-        <v>0.009032043159247037</v>
+        <v>0.01209293997598288</v>
       </c>
       <c r="F83">
-        <v>-0.0518841361009062</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.001722707830609103</v>
+      </c>
+      <c r="G83">
+        <v>-0.05685052559428958</v>
+      </c>
+      <c r="H83">
+        <v>-0.03692463226780831</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2122346852505528</v>
+        <v>-0.217595243585202</v>
       </c>
       <c r="C85">
-        <v>-0.06699922294933928</v>
+        <v>-0.1075884001386464</v>
       </c>
       <c r="D85">
-        <v>0.07202607103339556</v>
+        <v>-0.08904242978943987</v>
       </c>
       <c r="E85">
-        <v>0.06546602125948955</v>
+        <v>0.01615786468446066</v>
       </c>
       <c r="F85">
-        <v>0.2339087390425399</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1261525279723325</v>
+      </c>
+      <c r="G85">
+        <v>0.1865298187815947</v>
+      </c>
+      <c r="H85">
+        <v>-0.02920692560341216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02463921412053431</v>
+        <v>-0.01380985073250401</v>
       </c>
       <c r="C86">
-        <v>0.006827001445329533</v>
+        <v>-0.0004074850196274017</v>
       </c>
       <c r="D86">
-        <v>0.06008775452398652</v>
+        <v>-0.0303055416319221</v>
       </c>
       <c r="E86">
-        <v>0.02231682948712239</v>
+        <v>0.005106606758277336</v>
       </c>
       <c r="F86">
-        <v>-0.09119927834417746</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01126261023816683</v>
+      </c>
+      <c r="G86">
+        <v>-0.100744661630537</v>
+      </c>
+      <c r="H86">
+        <v>-0.06104115351683202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0182341566699326</v>
+        <v>-0.02516145569211005</v>
       </c>
       <c r="C87">
-        <v>-0.03825014870578491</v>
+        <v>-0.00285237860364895</v>
       </c>
       <c r="D87">
-        <v>-0.04105118092828761</v>
+        <v>0.01181630438317795</v>
       </c>
       <c r="E87">
-        <v>-0.03327010243069455</v>
+        <v>0.001478908901074509</v>
       </c>
       <c r="F87">
-        <v>-0.09202238313106097</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.005164155886691934</v>
+      </c>
+      <c r="G87">
+        <v>-0.1008582510079177</v>
+      </c>
+      <c r="H87">
+        <v>0.01290749981893839</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01256113625428479</v>
+        <v>-0.03701824634879294</v>
       </c>
       <c r="C88">
-        <v>-0.01322785094729468</v>
+        <v>0.008665187753297032</v>
       </c>
       <c r="D88">
-        <v>-0.003763175670897673</v>
+        <v>0.005418245851066838</v>
       </c>
       <c r="E88">
-        <v>0.01932223121732433</v>
+        <v>-0.004614965598429119</v>
       </c>
       <c r="F88">
-        <v>-0.01978368363111863</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01044365893083615</v>
+      </c>
+      <c r="G88">
+        <v>-0.002340262861426373</v>
+      </c>
+      <c r="H88">
+        <v>-0.02596497795236647</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08586041765508512</v>
+        <v>-0.1397054457045414</v>
       </c>
       <c r="C89">
-        <v>-0.1258842630796229</v>
+        <v>-0.007694473568077708</v>
       </c>
       <c r="D89">
-        <v>-0.2426824742000171</v>
+        <v>0.3779546830906592</v>
       </c>
       <c r="E89">
-        <v>-0.2188710256368415</v>
+        <v>0.06698937322421608</v>
       </c>
       <c r="F89">
-        <v>-0.03716354178395859</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1108140567321375</v>
+      </c>
+      <c r="G89">
+        <v>0.001673989239112977</v>
+      </c>
+      <c r="H89">
+        <v>-0.09763194632177055</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08389263146944662</v>
+        <v>-0.1038554159041682</v>
       </c>
       <c r="C90">
-        <v>-0.1231333190232849</v>
+        <v>-0.002847904096457936</v>
       </c>
       <c r="D90">
-        <v>-0.2560123817000924</v>
+        <v>0.3185283986141978</v>
       </c>
       <c r="E90">
-        <v>-0.1607639816156272</v>
+        <v>0.0373200885820418</v>
       </c>
       <c r="F90">
-        <v>-0.0231977570884041</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1011918625305188</v>
+      </c>
+      <c r="G90">
+        <v>0.03335072790826513</v>
+      </c>
+      <c r="H90">
+        <v>-0.05987039923510492</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2774698856475615</v>
+        <v>-0.2554996905302334</v>
       </c>
       <c r="C91">
-        <v>-0.07767641120221308</v>
+        <v>-0.1353363256378671</v>
       </c>
       <c r="D91">
-        <v>0.09189351405411066</v>
+        <v>-0.09624920083645842</v>
       </c>
       <c r="E91">
-        <v>0.05890771544628608</v>
+        <v>0.02352844636717975</v>
       </c>
       <c r="F91">
-        <v>0.2987785667257306</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1251147406586028</v>
+      </c>
+      <c r="G91">
+        <v>0.2435852075227307</v>
+      </c>
+      <c r="H91">
+        <v>-0.05801496634109631</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1316674960066649</v>
+        <v>-0.1736427385190256</v>
       </c>
       <c r="C92">
-        <v>-0.1014047110939764</v>
+        <v>-0.07796219631195495</v>
       </c>
       <c r="D92">
-        <v>-0.2810156625775296</v>
+        <v>0.3242482429275242</v>
       </c>
       <c r="E92">
-        <v>-0.1566180963442181</v>
+        <v>0.0235243129437675</v>
       </c>
       <c r="F92">
-        <v>0.01304144566337256</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.09858038466102068</v>
+      </c>
+      <c r="G92">
+        <v>0.0941575450605496</v>
+      </c>
+      <c r="H92">
+        <v>-0.1786475677174142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08299293814465317</v>
+        <v>-0.1312189403682025</v>
       </c>
       <c r="C93">
-        <v>-0.1134305710358551</v>
+        <v>-0.01396100170917178</v>
       </c>
       <c r="D93">
-        <v>-0.3237702704969905</v>
+        <v>0.3694161171039184</v>
       </c>
       <c r="E93">
-        <v>-0.2208138650181443</v>
+        <v>0.0539547637550209</v>
       </c>
       <c r="F93">
-        <v>0.01019092544257297</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1624252269175006</v>
+      </c>
+      <c r="G93">
+        <v>0.05311984011114559</v>
+      </c>
+      <c r="H93">
+        <v>-0.001255930692489909</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2600549100553973</v>
+        <v>-0.2721248752649089</v>
       </c>
       <c r="C94">
-        <v>-0.1070684374285451</v>
+        <v>-0.1220893386786389</v>
       </c>
       <c r="D94">
-        <v>0.009223425301327684</v>
+        <v>-0.03236271600782906</v>
       </c>
       <c r="E94">
-        <v>0.01778825476376628</v>
+        <v>0.042372579508447</v>
       </c>
       <c r="F94">
-        <v>0.3537189233834074</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1381844770582911</v>
+      </c>
+      <c r="G94">
+        <v>0.2750730474629488</v>
+      </c>
+      <c r="H94">
+        <v>-0.04573152129292194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1540560253344627</v>
+        <v>-0.1088757236736131</v>
       </c>
       <c r="C95">
-        <v>0.009211448886267435</v>
+        <v>-0.06217491279542268</v>
       </c>
       <c r="D95">
-        <v>0.156536955752852</v>
+        <v>-0.0616165536696278</v>
       </c>
       <c r="E95">
-        <v>0.001509218548064864</v>
+        <v>0.0882975332861749</v>
       </c>
       <c r="F95">
-        <v>-0.03304190178683374</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.01685501542339304</v>
+      </c>
+      <c r="G95">
+        <v>-0.0724662958234825</v>
+      </c>
+      <c r="H95">
+        <v>-0.1591137358333519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1910178569821077</v>
+        <v>-0.1856173018249407</v>
       </c>
       <c r="C98">
-        <v>-0.06441973290116457</v>
+        <v>-0.08598982135985413</v>
       </c>
       <c r="D98">
-        <v>-0.02713922079972864</v>
+        <v>0.02629089514056244</v>
       </c>
       <c r="E98">
-        <v>-0.1027112124380817</v>
+        <v>0.06823210575964679</v>
       </c>
       <c r="F98">
-        <v>-0.1144932482799025</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.02070864428666786</v>
+      </c>
+      <c r="G98">
+        <v>-0.1869121908891596</v>
+      </c>
+      <c r="H98">
+        <v>0.3927844879329496</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.001242536285609455</v>
+        <v>-0.01307885162793208</v>
       </c>
       <c r="C101">
-        <v>-0.01764056135009422</v>
+        <v>-0.0006160107541607349</v>
       </c>
       <c r="D101">
-        <v>0.05900976498612784</v>
+        <v>-0.01793193328019402</v>
       </c>
       <c r="E101">
-        <v>0.04956973155341524</v>
+        <v>-0.00348185210378952</v>
       </c>
       <c r="F101">
-        <v>-0.05204751724293115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03865221782826955</v>
+      </c>
+      <c r="G101">
+        <v>-0.08349645250973756</v>
+      </c>
+      <c r="H101">
+        <v>-0.1167639864478221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08963000860456465</v>
+        <v>-0.110126566221459</v>
       </c>
       <c r="C102">
-        <v>-0.02437528608394535</v>
+        <v>-0.04673721333916499</v>
       </c>
       <c r="D102">
-        <v>0.04428331529691472</v>
+        <v>-0.04233096803111278</v>
       </c>
       <c r="E102">
-        <v>0.05054142659224359</v>
+        <v>0.001811487608514453</v>
       </c>
       <c r="F102">
-        <v>0.1032637118629725</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.0648204539848686</v>
+      </c>
+      <c r="G102">
+        <v>0.1123491540319965</v>
+      </c>
+      <c r="H102">
+        <v>-0.01066057817956958</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.0204592931931777</v>
+        <v>-0.02462134786880317</v>
       </c>
       <c r="C103">
-        <v>-0.01027497494591793</v>
+        <v>-0.01142093464661569</v>
       </c>
       <c r="D103">
-        <v>0.001951772248633792</v>
+        <v>-0.007369889305975959</v>
       </c>
       <c r="E103">
-        <v>0.00522529804177463</v>
+        <v>-0.006556757517908808</v>
       </c>
       <c r="F103">
-        <v>0.0300438985144332</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01585826606773726</v>
+      </c>
+      <c r="G103">
+        <v>0.01277036909073061</v>
+      </c>
+      <c r="H103">
+        <v>-0.01786370547277913</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.3437340191355684</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9204917147633974</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.0205787823583506</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.004413410856818662</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1517430001609671</v>
+      </c>
+      <c r="G104">
+        <v>0.04566518885123733</v>
+      </c>
+      <c r="H104">
+        <v>0.001185238636745157</v>
       </c>
     </row>
   </sheetData>
